--- a/tabla_bonos_reacomodada.xlsx
+++ b/tabla_bonos_reacomodada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7BBD3-631D-48B4-969F-8BC8EE8BD73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087A4B0-BF63-4B39-97CA-FFBF0CDCD7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="613">
   <si>
     <t>Sección</t>
   </si>
@@ -1811,13 +1811,79 @@
   </si>
   <si>
     <t>Ticker</t>
+  </si>
+  <si>
+    <t>30/6/2024</t>
+  </si>
+  <si>
+    <t>30/6/2025</t>
+  </si>
+  <si>
+    <t>30/6/2026</t>
+  </si>
+  <si>
+    <t>30/6/2027</t>
+  </si>
+  <si>
+    <t>30/6/2028</t>
+  </si>
+  <si>
+    <t>30/6/2029</t>
+  </si>
+  <si>
+    <t>30/6/2030</t>
+  </si>
+  <si>
+    <t>30/6/2031</t>
+  </si>
+  <si>
+    <t>30/6/2032</t>
+  </si>
+  <si>
+    <t>30/6/2033</t>
+  </si>
+  <si>
+    <t>30/6/2034</t>
+  </si>
+  <si>
+    <t>30/6/2035</t>
+  </si>
+  <si>
+    <t>30/6/2036</t>
+  </si>
+  <si>
+    <t>30/6/2037</t>
+  </si>
+  <si>
+    <t>30/6/2038</t>
+  </si>
+  <si>
+    <t>30/6/2039</t>
+  </si>
+  <si>
+    <t>30/6/2040</t>
+  </si>
+  <si>
+    <t>30/6/2041</t>
+  </si>
+  <si>
+    <t>30/6/2042</t>
+  </si>
+  <si>
+    <t>30/6/2043</t>
+  </si>
+  <si>
+    <t>30/6/2044</t>
+  </si>
+  <si>
+    <t>30/6/2045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1830,6 +1896,13 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1915,17 +1988,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2119,7 +2192,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2995,7 +3068,17 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaBonos" displayName="TablaBonos" ref="A1:S65">
-  <autoFilter ref="A1:S65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:S65" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Bonos CUASIPAR"/>
+        <filter val="Bonos Discount"/>
+        <filter val="Bonos PAR"/>
+        <filter val="CER (cupón)"/>
+        <filter val="CER cupón cero"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sección"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción"/>
@@ -3340,14 +3423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q44" sqref="Q44:Q50"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -3366,7 +3449,7 @@
     <col min="18" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3484,7 +3567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3543,7 +3626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3602,7 +3685,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3661,7 +3744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -3720,7 +3803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3779,7 +3862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -3838,7 +3921,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3897,7 +3980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -3956,7 +4039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4015,7 +4098,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -4074,7 +4157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -4133,7 +4216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -4192,7 +4275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -4251,7 +4334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -4310,7 +4393,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -4369,7 +4452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -4428,7 +4511,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -4487,7 +4570,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -4546,7 +4629,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -4605,7 +4688,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -4664,7 +4747,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -4723,7 +4806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -4782,7 +4865,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -4841,7 +4924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -4900,7 +4983,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -4959,7 +5042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -5018,7 +5101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -5077,7 +5160,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>195</v>
       </c>
@@ -5136,7 +5219,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -5195,7 +5278,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -5254,7 +5337,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>267</v>
       </c>
@@ -5313,7 +5396,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -5372,7 +5455,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -5431,7 +5514,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>282</v>
       </c>
@@ -5490,7 +5573,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -5549,7 +5632,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>282</v>
       </c>
@@ -5608,7 +5691,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -5667,7 +5750,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>282</v>
       </c>
@@ -5726,7 +5809,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -5785,7 +5868,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -5844,7 +5927,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -5903,7 +5986,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>388</v>
       </c>
@@ -5962,7 +6045,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>388</v>
       </c>
@@ -6021,7 +6104,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -6080,7 +6163,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>388</v>
       </c>
@@ -6139,7 +6222,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -6198,7 +6281,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -6257,7 +6340,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>388</v>
       </c>
@@ -6316,7 +6399,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -6375,7 +6458,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>450</v>
       </c>
@@ -6434,7 +6517,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>450</v>
       </c>
@@ -6493,7 +6576,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>484</v>
       </c>
@@ -6552,7 +6635,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>484</v>
       </c>
@@ -6611,7 +6694,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -6670,7 +6753,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>504</v>
       </c>
@@ -6729,7 +6812,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>504</v>
       </c>
@@ -6788,7 +6871,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>504</v>
       </c>
@@ -6847,7 +6930,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>504</v>
       </c>
@@ -6906,7 +6989,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>504</v>
       </c>
@@ -6965,7 +7048,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>504</v>
       </c>
@@ -7024,7 +7107,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>504</v>
       </c>
@@ -7083,7 +7166,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>504</v>
       </c>
@@ -7142,7 +7225,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>504</v>
       </c>
@@ -7201,7 +7284,118 @@
         <v>572</v>
       </c>
     </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>612</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7218,7 +7412,7 @@
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
@@ -7241,7 +7435,7 @@
     <col min="24" max="25" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7318,7 +7512,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7395,7 +7589,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -7472,7 +7666,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -7549,7 +7743,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -7611,7 +7805,7 @@
         <v>1739.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -7673,7 +7867,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -7735,7 +7929,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -7797,7 +7991,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7874,7 +8068,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -7951,7 +8145,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -8019,7 +8213,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -8096,7 +8290,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -8173,7 +8367,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -8250,7 +8444,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -8327,7 +8521,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -8404,7 +8598,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -8481,7 +8675,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -8558,7 +8752,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -8635,7 +8829,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -8712,7 +8906,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -8789,7 +8983,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -8866,7 +9060,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -8943,7 +9137,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -9020,7 +9214,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -9097,7 +9291,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -9174,7 +9368,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -9251,7 +9445,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -9328,7 +9522,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -9405,7 +9599,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>195</v>
       </c>
@@ -9482,7 +9676,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -9559,7 +9753,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -9636,7 +9830,7 @@
         <v>7.58</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>267</v>
       </c>
@@ -9713,7 +9907,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -9790,7 +9984,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -9867,7 +10061,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>282</v>
       </c>
@@ -9944,7 +10138,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -10021,7 +10215,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>282</v>
       </c>
@@ -10098,7 +10292,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -10175,7 +10369,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>282</v>
       </c>
@@ -10252,7 +10446,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -10329,7 +10523,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -10406,7 +10600,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -10480,7 +10674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>388</v>
       </c>
@@ -10554,7 +10748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>388</v>
       </c>
@@ -10628,7 +10822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -10702,7 +10896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>388</v>
       </c>
@@ -10776,7 +10970,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -10850,7 +11044,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -10924,7 +11118,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>388</v>
       </c>
@@ -10998,7 +11192,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -11075,7 +11269,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>450</v>
       </c>
@@ -11152,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>450</v>
       </c>
@@ -11229,7 +11423,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>484</v>
       </c>
@@ -11306,7 +11500,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>484</v>
       </c>
@@ -11383,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>504</v>
       </c>
@@ -11460,7 +11654,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>504</v>
       </c>
@@ -11537,7 +11731,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>504</v>
       </c>
@@ -11614,7 +11808,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>504</v>
       </c>
@@ -11691,7 +11885,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>504</v>
       </c>
@@ -11768,7 +11962,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>504</v>
       </c>
@@ -11845,7 +12039,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>504</v>
       </c>
@@ -11922,7 +12116,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>504</v>
       </c>
@@ -11999,7 +12193,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>504</v>
       </c>
@@ -12076,7 +12270,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>504</v>
       </c>
@@ -12166,19 +12360,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>388</v>
       </c>
@@ -12201,7 +12395,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>388</v>
       </c>
@@ -12224,7 +12418,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>388</v>
       </c>
@@ -12247,7 +12441,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>388</v>
       </c>
@@ -12270,7 +12464,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>388</v>
       </c>
@@ -12293,7 +12487,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>388</v>
       </c>
@@ -12316,7 +12510,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>388</v>
       </c>
@@ -12339,7 +12533,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>282</v>
       </c>
@@ -12356,7 +12550,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>282</v>
       </c>
@@ -12373,7 +12567,7 @@
         <v>-0.1668</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>282</v>
       </c>
@@ -12390,7 +12584,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>282</v>
       </c>
@@ -12427,7 +12621,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>282</v>
       </c>
@@ -12464,7 +12658,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>388</v>
       </c>
@@ -12500,7 +12694,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>282</v>
       </c>
@@ -12537,7 +12731,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>388</v>
       </c>
@@ -12574,7 +12768,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>388</v>
       </c>
@@ -12611,7 +12805,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>388</v>
       </c>
@@ -12648,7 +12842,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>282</v>
       </c>
@@ -12685,7 +12879,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>388</v>
       </c>
@@ -12722,7 +12916,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>388</v>
       </c>
@@ -12759,7 +12953,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>388</v>
       </c>
@@ -12796,7 +12990,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="6"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>388</v>
       </c>
@@ -12833,7 +13027,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>282</v>
       </c>
@@ -12870,7 +13064,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="6"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>282</v>
       </c>
@@ -12907,7 +13101,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -12944,7 +13138,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="6"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -12981,7 +13175,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -13018,7 +13212,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -13035,7 +13229,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>282</v>
       </c>
@@ -13052,7 +13246,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>282</v>
       </c>
@@ -13069,7 +13263,7 @@
         <v>-0.1668</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>282</v>
       </c>
@@ -13086,7 +13280,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>282</v>
       </c>
@@ -13103,7 +13297,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>282</v>
       </c>
@@ -13120,7 +13314,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>388</v>
       </c>
@@ -13144,7 +13338,7 @@
         <v>1.0054794520547945</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>282</v>
       </c>
@@ -13161,7 +13355,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>388</v>
       </c>
@@ -13185,7 +13379,7 @@
         <v>1.4657534246575343</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>388</v>
       </c>
@@ -13209,7 +13403,7 @@
         <v>1.7561643835616438</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>388</v>
       </c>
@@ -13233,7 +13427,7 @@
         <v>2.0054794520547947</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>282</v>
       </c>
@@ -13250,7 +13444,7 @@
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>388</v>
       </c>
@@ -13274,7 +13468,7 @@
         <v>2.4657534246575343</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>388</v>
       </c>
@@ -13298,7 +13492,7 @@
         <v>3.0054794520547947</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>388</v>
       </c>
@@ -13322,7 +13516,7 @@
         <v>3.4657534246575343</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>388</v>
       </c>
@@ -13346,7 +13540,7 @@
         <v>4.0082191780821921</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>282</v>
       </c>
@@ -13363,7 +13557,7 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>282</v>
       </c>
@@ -13380,7 +13574,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
@@ -13397,7 +13591,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
@@ -13414,7 +13608,7 @@
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -13435,6 +13629,9 @@
   <autoFilter ref="A31:E51" xr:uid="{8C735B41-2652-429F-AA93-2EF60C4F8792}">
     <filterColumn colId="0">
       <filters>
+        <filter val="Bonos CUASIPAR"/>
+        <filter val="Bonos Discount"/>
+        <filter val="Bonos PAR"/>
         <filter val="CER cupón cero"/>
       </filters>
     </filterColumn>
